--- a/tests/Fixture/group-import.xlsx
+++ b/tests/Fixture/group-import.xlsx
@@ -20,63 +20,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>studentnumber</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>docent</t>
-  </si>
-  <si>
-    <t>Groep a1</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Izelaar</t>
-  </si>
-  <si>
-    <t>Donk 8</t>
-  </si>
-  <si>
-    <t>3206BH</t>
-  </si>
-  <si>
-    <t>Spijkenisse</t>
-  </si>
-  <si>
-    <t>Klas 2A</t>
-  </si>
-  <si>
-    <t>Cees</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>Vogel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">group_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studentnumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameijde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyleweg 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3333GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spijkenisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izelaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dijkema</t>
   </si>
 </sst>
 </file>
@@ -84,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -173,19 +197,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,42 +248,110 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1234</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2345</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
